--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\Documents\Tools\exceler\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075"/>
   </bookViews>
   <sheets>
-    <sheet name="shapes" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="shapes" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,6 +21,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,15 +45,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +67,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,27 +107,918 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>shapes!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>key</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>shapes!$K$14:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D86-48F3-A4F4-72DCF53F50CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>shapes!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>shapes!$L$14:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D86-48F3-A4F4-72DCF53F50CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="437777328"/>
+        <c:axId val="438302032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="437777328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438302032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438302032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437777328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F3E5C0-6012-4E79-8367-4D8FB0967531}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9335C83-E5FD-480E-951C-49557BDF863C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -102,37 +1026,149 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="276225"/>
+          <a:off x="609600" y="571500"/>
           <a:ext cx="1895475" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="5B9BD5">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Rectangle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hello, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="1" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>world!!</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -142,22 +1178,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Smiley Face 2">
+        <xdr:cNvPr id="19" name="Smiley Face 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26E2EC0-AB62-4CDC-90B7-7658772BA07F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805F3C8C-2D01-4E3C-B53F-71327BDB49B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -165,7 +1201,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="1476375"/>
+          <a:off x="2533650" y="1771650"/>
           <a:ext cx="971550" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
@@ -174,29 +1210,52 @@
         <a:solidFill>
           <a:srgbClr val="FFC000"/>
         </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="5B9BD5">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -204,23 +1263,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Division Sign 3">
+        <xdr:cNvPr id="20" name="Division Sign 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835A36C0-B934-4C43-9FE7-4D7B7CA32643}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1A38B6-3D26-4D45-9548-7C68B6F977E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -228,7 +1287,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4391025" y="1905000"/>
+          <a:off x="4105275" y="2200275"/>
           <a:ext cx="1076325" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="mathDivide">
@@ -237,32 +1296,377 @@
         <a:solidFill>
           <a:srgbClr val="00B050"/>
         </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="5B9BD5">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB86125-CCAD-4CD0-8E08-12BE5B451279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="2905125"/>
+          <a:ext cx="2409825" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Group 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751F8D05-976F-406D-A763-AC0CCD37A33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3733800" y="647700"/>
+          <a:ext cx="2486025" cy="1133475"/>
+          <a:chOff x="3733800" y="647700"/>
+          <a:chExt cx="2486025" cy="1133475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Oval 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB5254A-CC70-49A9-8A8C-F12F5DC6A9D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3733800" y="942975"/>
+            <a:ext cx="1143000" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA4995D-202C-4198-A472-28DE17FDA1BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5286375" y="647700"/>
+            <a:ext cx="933450" cy="1133475"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connector: Curved 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305FDA64-00BC-4065-82E6-F4F44938B856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4881563" y="71438"/>
+          <a:ext cx="295275" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 177419"/>
+          </a:avLst>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Connector: Curved 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6114EB-2DA8-4A33-BC47-B785EF29E26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="4"/>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5074443" y="445294"/>
+          <a:ext cx="376237" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -111393"/>
+            <a:gd name="adj2" fmla="val 111940"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F7FA13-EA90-48A1-838B-F5CF1E96F5AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -565,27 +1969,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K13:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\Documents\Tools\exceler\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local_data\app\msys64\home\nrjryka\Documents\Tools\exceler\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shapes" sheetId="3" r:id="rId1"/>
+    <sheet name="table" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,12 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>row1</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -45,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,8 +92,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -82,14 +122,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1971,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K13:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -2021,4 +2169,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local_data\app\msys64\home\nrjryka\Documents\Tools\exceler\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\Documents\Tools\exceler\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,8 +70,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -238,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,13 +2185,13 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\Documents\Tools\exceler\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\IdeaProjects\exceler\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="shapes" sheetId="3" r:id="rId1"/>
     <sheet name="table" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>key</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -229,11 +232,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -247,6 +287,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,9 +1412,7 @@
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="5B9BD5">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -1451,13 +1492,13 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="5B9BD5">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -2128,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K13:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,6 +2416,198 @@
       <c r="H18" s="10"/>
       <c r="I18" s="9"/>
     </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="shapes" sheetId="3" r:id="rId1"/>
     <sheet name="table" sheetId="4" r:id="rId2"/>
+    <sheet name="stack" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" calcMode="manual"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>key</t>
   </si>
@@ -67,6 +68,36 @@
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>stack1</t>
+  </si>
+  <si>
+    <t>separator1</t>
+  </si>
+  <si>
+    <t>separator2</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>val12</t>
+  </si>
+  <si>
+    <t>val13</t>
+  </si>
+  <si>
+    <t>val12-1</t>
+  </si>
+  <si>
+    <t>val13-1</t>
+  </si>
+  <si>
+    <t>val12-2</t>
+  </si>
+  <si>
+    <t>val13-2</t>
   </si>
 </sst>
 </file>
@@ -110,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -269,11 +300,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -290,6 +339,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,4 +2672,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="25"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -339,17 +339,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2679,7 +2681,7 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,70 +2692,70 @@
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="14" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
@@ -2764,74 +2766,74 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
@@ -2856,24 +2858,24 @@
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -2892,52 +2894,52 @@
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>

--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\IdeaProjects\exceler\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local_data\app\msys64\home\nrjryka\Home\IdeaProjects\exceler\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="shapes" sheetId="3" r:id="rId1"/>
     <sheet name="table" sheetId="4" r:id="rId2"/>
     <sheet name="stack" sheetId="5" r:id="rId3"/>
+    <sheet name="border" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" calcMode="manual"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>key</t>
   </si>
@@ -98,6 +99,10 @@
   </si>
   <si>
     <t>val13-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -322,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -352,6 +357,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2680,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2973,4 +2981,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local_data\app\msys64\home\nrjryka\Home\IdeaProjects\exceler\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\IdeaProjects\exceler\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="shapes" sheetId="3" r:id="rId1"/>
     <sheet name="table" sheetId="4" r:id="rId2"/>
     <sheet name="stack" sheetId="5" r:id="rId3"/>
     <sheet name="border" sheetId="6" r:id="rId4"/>
+    <sheet name="table2" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>key</t>
   </si>
@@ -103,6 +104,12 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>what is it?</t>
   </si>
 </sst>
 </file>
@@ -327,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +367,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2987,7 +2996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3164,4 +3173,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>key</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>what is it?</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3183,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,7 +3219,9 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>key</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>bottomRight</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3186,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,7 +3373,9 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>

--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="shapes" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>key</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>bottomRight</t>
+  </si>
+  <si>
+    <t>row2</t>
+  </si>
+  <si>
+    <t>col1</t>
   </si>
 </sst>
 </file>
@@ -2703,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2723,9 @@
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17" t="s">
@@ -2831,7 +2839,9 @@
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
@@ -2937,7 +2947,9 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3185,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>key</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>col1</t>
+  </si>
+  <si>
+    <t>val22</t>
   </si>
 </sst>
 </file>
@@ -2710,7 +2713,7 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2848,9 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
